--- a/data/trans_camb/P1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,86</t>
+          <t>-1,59; 3,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,2</t>
+          <t>4,15; 10,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,84; 21,85</t>
+          <t>13,6; 21,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,16</t>
+          <t>-1,28; 4,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,99</t>
+          <t>2,07; 8,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 23,76</t>
+          <t>17,2; 23,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,55</t>
+          <t>-0,63; 3,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,76</t>
+          <t>4,05; 8,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,1; 22,42</t>
+          <t>17,42; 22,5</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 43,57</t>
+          <t>-14,66; 47,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,24; 121,37</t>
+          <t>36,08; 125,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>125,41; 256,35</t>
+          <t>121,73; 266,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 30,91</t>
+          <t>-8,04; 34,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,41; 64,59</t>
+          <t>12,41; 64,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>102,14; 175,62</t>
+          <t>105,03; 183,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 29,97</t>
+          <t>-4,58; 28,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,0; 74,27</t>
+          <t>29,54; 73,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>125,42; 192,92</t>
+          <t>128,58; 195,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,34</t>
+          <t>-0,83; 2,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,11</t>
+          <t>2,55; 6,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,7; 12,82</t>
+          <t>8,79; 12,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,17</t>
+          <t>-0,81; 2,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,29</t>
+          <t>4,21; 7,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,08</t>
+          <t>5,41; 9,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,83</t>
+          <t>-0,43; 1,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,28</t>
+          <t>3,76; 6,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 10,42</t>
+          <t>7,56; 10,46</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 47,97</t>
+          <t>-13,58; 52,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,5; 138,35</t>
+          <t>42,62; 133,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>136,92; 281,77</t>
+          <t>142,39; 284,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 69,42</t>
+          <t>-17,82; 65,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,98; 221,41</t>
+          <t>88,33; 234,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>116,34; 288,8</t>
+          <t>116,42; 277,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 45,3</t>
+          <t>-8,37; 44,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>72,3; 150,43</t>
+          <t>69,88; 149,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>143,42; 247,97</t>
+          <t>143,58; 254,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 7,32</t>
+          <t>-0,74; 7,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 13,37</t>
+          <t>5,17; 13,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 10,29</t>
+          <t>3,0; 10,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 7,48</t>
+          <t>-0,55; 7,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,03</t>
+          <t>0,87; 9,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,96</t>
+          <t>4,05; 11,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,34</t>
+          <t>0,58; 6,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,02</t>
+          <t>4,18; 9,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,51</t>
+          <t>4,1; 9,32</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 98,51</t>
+          <t>-6,86; 107,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,71; 184,21</t>
+          <t>48,32; 189,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,37; 151,14</t>
+          <t>26,18; 146,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 131,22</t>
+          <t>-7,66; 114,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,95; 147,58</t>
+          <t>4,83; 140,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,93; 191,43</t>
+          <t>37,71; 183,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,98; 89,8</t>
+          <t>6,39; 88,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>41,73; 137,98</t>
+          <t>43,71; 139,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,94; 140,17</t>
+          <t>42,81; 131,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,39</t>
+          <t>-0,46; 2,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,76</t>
+          <t>3,65; 6,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,93; 12,36</t>
+          <t>8,73; 12,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,46</t>
+          <t>-0,2; 2,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,91</t>
+          <t>3,07; 6,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 10,08</t>
+          <t>6,8; 10,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,07</t>
+          <t>-0,0; 2,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 5,83</t>
+          <t>3,64; 5,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,32; 10,73</t>
+          <t>8,26; 10,71</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 35,42</t>
+          <t>-6,08; 35,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,68; 104,87</t>
+          <t>44,86; 102,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>113,41; 186,86</t>
+          <t>109,25; 186,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 30,36</t>
+          <t>-2,16; 32,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,01; 74,97</t>
+          <t>32,49; 77,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,5; 126,3</t>
+          <t>73,25; 124,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,61; 27,55</t>
+          <t>-0,1; 26,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,5; 78,14</t>
+          <t>43,66; 79,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>98,35; 141,93</t>
+          <t>98,08; 143,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,91</t>
+          <t>-1,48; 3,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 10,3</t>
+          <t>4,14; 10,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,6; 21,72</t>
+          <t>13,54; 21,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,67</t>
+          <t>-1,43; 4,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,71</t>
+          <t>2,24; 8,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,2; 23,96</t>
+          <t>17,14; 24,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 3,39</t>
+          <t>-0,64; 3,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,78</t>
+          <t>3,82; 8,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,42; 22,5</t>
+          <t>16,93; 22,09</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 47,46</t>
+          <t>-13,95; 42,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,08; 125,23</t>
+          <t>36,67; 119,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>121,73; 266,68</t>
+          <t>119,53; 247,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 34,14</t>
+          <t>-8,63; 30,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,41; 64,21</t>
+          <t>13,29; 64,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>105,03; 183,76</t>
+          <t>103,29; 176,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 28,89</t>
+          <t>-4,56; 29,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,54; 73,12</t>
+          <t>27,16; 72,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>128,58; 195,72</t>
+          <t>124,56; 191,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,4</t>
+          <t>-0,83; 2,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,0</t>
+          <t>2,55; 6,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,79; 12,98</t>
+          <t>8,66; 12,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,11</t>
+          <t>-0,7; 2,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,56</t>
+          <t>3,95; 7,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,06</t>
+          <t>5,46; 9,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,82</t>
+          <t>-0,3; 1,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,14</t>
+          <t>3,71; 6,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,56; 10,46</t>
+          <t>7,6; 10,48</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 52,25</t>
+          <t>-13,57; 56,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,62; 133,85</t>
+          <t>38,85; 133,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>142,39; 284,07</t>
+          <t>135,13; 288,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 65,68</t>
+          <t>-15,87; 66,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,33; 234,7</t>
+          <t>83,19; 232,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>116,42; 277,75</t>
+          <t>115,86; 276,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 44,89</t>
+          <t>-5,86; 46,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,88; 149,66</t>
+          <t>69,39; 154,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>143,58; 254,83</t>
+          <t>142,93; 255,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 7,28</t>
+          <t>-0,49; 7,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 13,14</t>
+          <t>4,68; 13,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,0; 10,22</t>
+          <t>2,69; 10,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 7,22</t>
+          <t>-0,39; 7,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 9,21</t>
+          <t>0,98; 8,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 11,06</t>
+          <t>3,85; 10,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,15</t>
+          <t>0,33; 6,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,89</t>
+          <t>4,43; 9,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,32</t>
+          <t>4,14; 9,38</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 107,44</t>
+          <t>-5,11; 111,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,32; 189,73</t>
+          <t>42,87; 203,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,18; 146,56</t>
+          <t>22,41; 161,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 114,18</t>
+          <t>-6,0; 123,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 140,95</t>
+          <t>10,02; 150,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,71; 183,44</t>
+          <t>38,05; 176,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 88,0</t>
+          <t>3,36; 87,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,71; 139,49</t>
+          <t>43,73; 142,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>42,81; 131,76</t>
+          <t>41,9; 133,51</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,37</t>
+          <t>-0,38; 2,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,83</t>
+          <t>3,79; 6,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,12</t>
+          <t>8,77; 12,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,55</t>
+          <t>-0,4; 2,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,19</t>
+          <t>2,9; 6,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,1</t>
+          <t>6,86; 10,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 2,04</t>
+          <t>0,1; 2,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,93</t>
+          <t>3,76; 5,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,26; 10,71</t>
+          <t>8,34; 10,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 35,75</t>
+          <t>-4,85; 34,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>44,86; 102,22</t>
+          <t>48,54; 104,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>109,25; 186,36</t>
+          <t>107,96; 185,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 32,6</t>
+          <t>-4,24; 31,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>32,49; 77,18</t>
+          <t>31,25; 75,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>73,25; 124,96</t>
+          <t>72,78; 127,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 26,76</t>
+          <t>1,14; 27,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,66; 79,06</t>
+          <t>43,48; 78,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>98,08; 143,27</t>
+          <t>97,92; 142,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,58</t>
+          <t>-1,45; 3,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 10,35</t>
+          <t>3,8; 10,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,54; 21,46</t>
+          <t>13,84; 21,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,19</t>
+          <t>-1,43; 4,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,94</t>
+          <t>1,92; 8,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,14; 24,05</t>
+          <t>17,01; 23,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,44</t>
+          <t>-0,67; 3,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 8,52</t>
+          <t>3,98; 8,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,93; 22,09</t>
+          <t>17,1; 22,42</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 42,56</t>
+          <t>-13,52; 43,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,67; 119,89</t>
+          <t>35,24; 121,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>119,53; 247,42</t>
+          <t>125,41; 256,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 30,32</t>
+          <t>-8,61; 30,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,29; 64,78</t>
+          <t>11,41; 64,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>103,29; 176,01</t>
+          <t>102,14; 175,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 29,75</t>
+          <t>-4,79; 29,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,16; 72,55</t>
+          <t>30,0; 74,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>124,56; 191,52</t>
+          <t>125,42; 192,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,6</t>
+          <t>-0,79; 2,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,05</t>
+          <t>2,54; 6,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,98</t>
+          <t>8,7; 12,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,13</t>
+          <t>-0,87; 2,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,49</t>
+          <t>4,02; 7,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,17</t>
+          <t>5,29; 9,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,9</t>
+          <t>-0,45; 1,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,19</t>
+          <t>3,8; 6,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,48</t>
+          <t>7,57; 10,42</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 56,39</t>
+          <t>-13,46; 47,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,85; 133,25</t>
+          <t>41,5; 138,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>135,13; 288,64</t>
+          <t>136,92; 281,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 66,38</t>
+          <t>-20,99; 69,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,19; 232,87</t>
+          <t>82,98; 221,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>115,86; 276,99</t>
+          <t>116,34; 288,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 46,51</t>
+          <t>-8,79; 45,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,39; 154,06</t>
+          <t>72,3; 150,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>142,93; 255,38</t>
+          <t>143,42; 247,97</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 7,39</t>
+          <t>-0,79; 7,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 13,63</t>
+          <t>4,57; 13,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 10,88</t>
+          <t>2,36; 10,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 7,6</t>
+          <t>-0,52; 7,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 8,85</t>
+          <t>1,03; 9,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 10,84</t>
+          <t>4,17; 10,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,09</t>
+          <t>0,81; 6,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,93</t>
+          <t>4,19; 10,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,38</t>
+          <t>4,28; 9,51</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 111,76</t>
+          <t>-9,65; 98,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,87; 203,55</t>
+          <t>40,71; 184,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,41; 161,47</t>
+          <t>21,37; 151,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 123,8</t>
+          <t>-5,64; 131,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 150,55</t>
+          <t>8,95; 147,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,05; 176,68</t>
+          <t>38,93; 191,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,36; 87,62</t>
+          <t>7,98; 89,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,73; 142,92</t>
+          <t>41,73; 137,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>41,9; 133,51</t>
+          <t>44,94; 140,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,36</t>
+          <t>-0,35; 2,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,78</t>
+          <t>3,89; 6,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,77; 12,26</t>
+          <t>8,93; 12,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,54</t>
+          <t>-0,36; 2,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,03</t>
+          <t>2,77; 5,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,31</t>
+          <t>6,5; 10,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,08</t>
+          <t>0,07; 2,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,97</t>
+          <t>3,71; 5,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,34; 10,78</t>
+          <t>8,32; 10,73</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 34,8</t>
+          <t>-4,62; 35,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,54; 104,39</t>
+          <t>48,68; 104,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>107,96; 185,11</t>
+          <t>113,41; 186,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 31,72</t>
+          <t>-3,81; 30,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,25; 75,52</t>
+          <t>29,01; 74,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>72,78; 127,84</t>
+          <t>70,5; 126,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,14; 27,25</t>
+          <t>0,61; 27,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,48; 78,31</t>
+          <t>43,5; 78,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>97,92; 142,4</t>
+          <t>98,35; 141,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,73</t>
+          <t>17,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,65</t>
+          <t>20,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,74</t>
+          <t>19,58</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,84; 21,85</t>
+          <t>13,88; 21,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 23,76</t>
+          <t>16,9; 23,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,1; 22,42</t>
+          <t>16,93; 22,18</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>183,54%</t>
+          <t>183,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>138,51%</t>
+          <t>137,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>156,69%</t>
+          <t>155,41%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>125,41; 256,35</t>
+          <t>125,04; 257,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>102,14; 175,62</t>
+          <t>101,05; 174,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>125,42; 192,92</t>
+          <t>124,91; 193,11</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>7,89</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,7; 12,82</t>
+          <t>4,96; 11,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,08</t>
+          <t>3,26; 8,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 10,42</t>
+          <t>5,2; 9,63</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>199,84%</t>
+          <t>173,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>187,11%</t>
+          <t>161,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>192,0%</t>
+          <t>167,55%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>136,92; 281,77</t>
+          <t>91,23; 247,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>116,34; 288,8</t>
+          <t>81,39; 258,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>143,42; 247,97</t>
+          <t>105,65; 224,13</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>6,81</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 10,29</t>
+          <t>2,35; 10,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,96</t>
+          <t>4,0; 10,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,51</t>
+          <t>4,11; 9,35</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>74,28%</t>
+          <t>73,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>82,7%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,37; 151,14</t>
+          <t>18,82; 149,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,93; 191,43</t>
+          <t>37,26; 188,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,94; 140,17</t>
+          <t>43,52; 137,21</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,56</t>
+          <t>8,51</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,93; 12,36</t>
+          <t>5,57; 11,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 10,08</t>
+          <t>4,08; 9,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,32; 10,73</t>
+          <t>6,15; 10,04</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>143,75%</t>
+          <t>129,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>118,97%</t>
+          <t>105,94%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>113,41; 186,86</t>
+          <t>78,26; 172,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,5; 126,3</t>
+          <t>49,1; 113,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>98,35; 141,93</t>
+          <t>78,11; 131,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,86</t>
+          <t>-1,59; 3,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,2</t>
+          <t>4,11; 10,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,88; 21,93</t>
+          <t>13,98; 21,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,16</t>
+          <t>-1,78; 3,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,99</t>
+          <t>2,24; 8,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,9; 23,49</t>
+          <t>17,45; 24,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,55</t>
+          <t>-0,62; 3,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,76</t>
+          <t>3,79; 8,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,93; 22,18</t>
+          <t>17,34; 22,15</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 43,57</t>
+          <t>-15,31; 45,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,24; 121,37</t>
+          <t>37,39; 121,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>125,04; 257,15</t>
+          <t>128,35; 256,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 30,91</t>
+          <t>-11,0; 29,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,41; 64,59</t>
+          <t>13,76; 62,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>101,05; 174,03</t>
+          <t>105,93; 178,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 29,97</t>
+          <t>-3,9; 30,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,0; 74,27</t>
+          <t>28,1; 71,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>124,91; 193,11</t>
+          <t>128,65; 190,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,34</t>
+          <t>-0,9; 2,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,11</t>
+          <t>2,55; 5,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 11,99</t>
+          <t>4,6; 12,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,17</t>
+          <t>-0,58; 2,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,29</t>
+          <t>4,1; 7,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,34</t>
+          <t>3,39; 8,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,83</t>
+          <t>-0,41; 1,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,28</t>
+          <t>3,79; 6,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,63</t>
+          <t>5,19; 9,7</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 47,97</t>
+          <t>-13,87; 50,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,5; 138,35</t>
+          <t>39,47; 128,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,23; 247,0</t>
+          <t>87,22; 253,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 69,42</t>
+          <t>-13,69; 70,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,98; 221,41</t>
+          <t>87,28; 228,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,39; 258,99</t>
+          <t>83,5; 251,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 45,3</t>
+          <t>-7,87; 42,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>72,3; 150,43</t>
+          <t>71,14; 152,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>105,65; 224,13</t>
+          <t>104,38; 223,72</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 7,32</t>
+          <t>-0,5; 7,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 13,37</t>
+          <t>4,91; 13,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 10,36</t>
+          <t>2,77; 10,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 7,48</t>
+          <t>-0,4; 7,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,03</t>
+          <t>1,3; 8,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 10,71</t>
+          <t>3,42; 10,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,34</t>
+          <t>0,63; 6,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,02</t>
+          <t>4,07; 9,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 9,35</t>
+          <t>4,11; 9,15</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 98,51</t>
+          <t>-5,75; 99,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,71; 184,21</t>
+          <t>44,76; 193,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,82; 149,43</t>
+          <t>25,55; 151,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 131,22</t>
+          <t>-5,21; 121,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,95; 147,58</t>
+          <t>12,78; 143,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,26; 188,16</t>
+          <t>34,12; 171,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,98; 89,8</t>
+          <t>6,11; 90,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>41,73; 137,98</t>
+          <t>43,85; 141,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>43,52; 137,21</t>
+          <t>41,35; 128,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,39</t>
+          <t>-0,52; 2,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,89; 6,76</t>
+          <t>3,67; 6,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 11,29</t>
+          <t>5,43; 11,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,46</t>
+          <t>-0,36; 2,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,91</t>
+          <t>2,77; 5,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 9,41</t>
+          <t>4,52; 9,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,07</t>
+          <t>0,07; 1,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 5,83</t>
+          <t>3,79; 5,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 10,04</t>
+          <t>6,2; 9,89</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 35,42</t>
+          <t>-6,32; 35,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,68; 104,87</t>
+          <t>44,09; 103,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>78,26; 172,47</t>
+          <t>76,66; 169,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 30,36</t>
+          <t>-4,35; 30,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,01; 74,97</t>
+          <t>29,32; 72,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,1; 113,81</t>
+          <t>49,82; 118,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,61; 27,55</t>
+          <t>0,76; 25,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,5; 78,14</t>
+          <t>44,64; 77,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>78,11; 131,08</t>
+          <t>73,7; 128,84</t>
         </is>
       </c>
     </row>
